--- a/biology/Histoire de la zoologie et de la botanique/Diorama/Diorama.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Diorama/Diorama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le diorama (de panorama avec le préfixe dia- qui se substitue au préfixe pan-) est un dispositif de présentation par mise en situation ou mise en scène d'un modèle d'exposition (un personnage historique, fictif, un animal disparu ou encore vivant à l'ère du public…), le faisant apparaître dans son environnement habituel[1].
-C'est un mode de reconstitution d'une scène (historique, naturaliste, géologique ou même religieuse) en volume[2] (au moins pour le sujet principal placé au centre de la scène).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diorama (de panorama avec le préfixe dia- qui se substitue au préfixe pan-) est un dispositif de présentation par mise en situation ou mise en scène d'un modèle d'exposition (un personnage historique, fictif, un animal disparu ou encore vivant à l'ère du public…), le faisant apparaître dans son environnement habituel.
+C'est un mode de reconstitution d'une scène (historique, naturaliste, géologique ou même religieuse) en volume (au moins pour le sujet principal placé au centre de la scène).
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans son mode le plus simple, le diorama consiste en une base ou socle supportant le modèle et complété par un fond de décor peint en deux dimensions.
 Dans un mode plus évolué, le diorama comporte un environnement lui aussi modélisé en volume avec une richesse de détails identique à celle du modèle.
-La véracité est obtenue par un rendu des textures et des couleurs les plus proches de la réalité exposée (il se différencie en cela de la sculpture) voire par l'utilisation des véritables matériaux et objets (végétaux séchés selon les techniques de l'herbier, reconstitution d'habitats en matériaux d'origine (peaux, adobe, etc.), mise en situation d'objets archéologiques ou de fossiles dans leur environnement contemporain ou des reconstitutions de sites de fouilles)[3].
+La véracité est obtenue par un rendu des textures et des couleurs les plus proches de la réalité exposée (il se différencie en cela de la sculpture) voire par l'utilisation des véritables matériaux et objets (végétaux séchés selon les techniques de l'herbier, reconstitution d'habitats en matériaux d'origine (peaux, adobe, etc.), mise en situation d'objets archéologiques ou de fossiles dans leur environnement contemporain ou des reconstitutions de sites de fouilles).
 L'échelle de la représentation dépend principalement du sujet exposé : une bataille historique, une scène de jeu, une scène avec des habitations, se feront à échelle réduite ; a contrario un animal dans son environnement (renard, mammouth, calmar géant, etc.) sera exposé à l'échelle 1 du réel pour plus de véracité et de didactisme.
 </t>
         </is>
@@ -546,9 +560,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1822, est appelée « diorama » une peinture de grande dimension animée par un jeu de lumières. Par exemple, le diorama de Louis Daguerre est un dispositif illusionniste incluant des toiles peintes sur support transparent, une chambre, une lentille de vision et un soufflet, que l'inventeur appelle un « polyorama panoptique »[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1822, est appelée « diorama » une peinture de grande dimension animée par un jeu de lumières. Par exemple, le diorama de Louis Daguerre est un dispositif illusionniste incluant des toiles peintes sur support transparent, une chambre, une lentille de vision et un soufflet, que l'inventeur appelle un « polyorama panoptique ».
 </t>
         </is>
       </c>
@@ -577,14 +593,16 @@
           <t>Sujets</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Historiquement, la crèche obéit la première aux principes du diorama (un décor, des personnages, une scène reconstituée)[5].
-Les scènes de batailles ont été des sujets de prédilection pour ces scènes pédagogiques (bataille de Plevna, bataille de Waterloo, Bataille de Leningrad…)[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Historiquement, la crèche obéit la première aux principes du diorama (un décor, des personnages, une scène reconstituée).
+Les scènes de batailles ont été des sujets de prédilection pour ces scènes pédagogiques (bataille de Plevna, bataille de Waterloo, Bataille de Leningrad…).
 Le modélisme use de ce genre de représentation pour la présentation de modèles réduits ou de scènes de jeu. On retrouve ce phénomène dans sa version numérique dans certains jeux vidéos.
-Les muséums d'histoire naturelle présentent depuis le XIXe siècle, par souci didactique, des animaux dans les scènes de leurs habitats particuliers (des naturalisations pour les animaux contemporains)[7].
-Certains dioramas ajoutent un fond sonore et vidéo, tel le Diorascope[8]. 
-En 2018, l'artiste japonais « Monde » invente les book nooks[9], des dioramas représentant en particulier des ruelles, sous forme de boite à insérer dans une bibliothèque.
+Les muséums d'histoire naturelle présentent depuis le XIXe siècle, par souci didactique, des animaux dans les scènes de leurs habitats particuliers (des naturalisations pour les animaux contemporains).
+Certains dioramas ajoutent un fond sonore et vidéo, tel le Diorascope. 
+En 2018, l'artiste japonais « Monde » invente les book nooks, des dioramas représentant en particulier des ruelles, sous forme de boite à insérer dans une bibliothèque.
 </t>
         </is>
       </c>
@@ -613,7 +631,9 @@
           <t>Quelques muséums présentant des dioramas</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Musée national d'histoire naturelle de Stuttgart, Stuttgart
 Musée d'histoire naturelle, Berne
@@ -656,7 +676,9 @@
           <t>Les musées d'histoire présentant des dioramas</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Musée allemand des Blindés (Panzermuseum), Munster
 Musée des Blindés, Saumur : chars d'assaut représentés dans des situations de combat
@@ -697,7 +719,9 @@
           <t>Scènes typiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Faune de la rivière Thelon (Canada), au Museo di storia naturale de Milan.
